--- a/Racecard_20250223_2.xlsx
+++ b/Racecard_20250223_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="279">
   <si>
     <t>日期</t>
   </si>
@@ -124,6 +124,9 @@
     <t>上次班次</t>
   </si>
   <si>
+    <t>上次路程</t>
+  </si>
+  <si>
     <t>上次名次</t>
   </si>
   <si>
@@ -199,6 +202,15 @@
     <t>前次總場次</t>
   </si>
   <si>
+    <t>前次日期</t>
+  </si>
+  <si>
+    <t>前次班次</t>
+  </si>
+  <si>
+    <t>前次路程</t>
+  </si>
+  <si>
     <t>前次名次</t>
   </si>
   <si>
@@ -286,13 +298,19 @@
     <t>前次賽事</t>
   </si>
   <si>
-    <t>2次調整後完成時間</t>
+    <t>2次調整後平均時間</t>
   </si>
   <si>
     <t>上次調整後完成秒速</t>
   </si>
   <si>
-    <t>2次調整後完成秒速</t>
+    <t>前次調整後完成秒速</t>
+  </si>
+  <si>
+    <t>2次調整後平均秒速</t>
+  </si>
+  <si>
+    <t>2次較快完成秒速</t>
   </si>
   <si>
     <t>ST</t>
@@ -629,6 +647,9 @@
     <t>2024/05/26</t>
   </si>
   <si>
+    <t>2025/01/26</t>
+  </si>
+  <si>
     <t>2024/12/15</t>
   </si>
   <si>
@@ -653,9 +674,15 @@
     <t>潘頓</t>
   </si>
   <si>
+    <t>希威森</t>
+  </si>
+  <si>
     <t>班德禮</t>
   </si>
   <si>
+    <t>鍾易禮</t>
+  </si>
+  <si>
     <t>周俊樂</t>
   </si>
   <si>
@@ -671,6 +698,9 @@
     <t>56.12</t>
   </si>
   <si>
+    <t>1:09.31</t>
+  </si>
+  <si>
     <t>55.90</t>
   </si>
   <si>
@@ -683,9 +713,15 @@
     <t>0:56.12</t>
   </si>
   <si>
+    <t>1:09.42</t>
+  </si>
+  <si>
     <t>0:56.66</t>
   </si>
   <si>
+    <t>1:09.86</t>
+  </si>
+  <si>
     <t>0:56.09</t>
   </si>
   <si>
@@ -701,9 +737,15 @@
     <t>0:56.02</t>
   </si>
   <si>
+    <t>0:56.71</t>
+  </si>
+  <si>
     <t>0:56.69</t>
   </si>
   <si>
+    <t>0:57.02</t>
+  </si>
+  <si>
     <t>0:55.98</t>
   </si>
   <si>
@@ -713,6 +755,18 @@
     <t>0:56.88</t>
   </si>
   <si>
+    <t>2024/11/09</t>
+  </si>
+  <si>
+    <t>2024/05/05</t>
+  </si>
+  <si>
+    <t>2024/03/10</t>
+  </si>
+  <si>
+    <t>2024/12/01</t>
+  </si>
+  <si>
     <t>何澤堯</t>
   </si>
   <si>
@@ -740,9 +794,6 @@
     <t>0:56.76</t>
   </si>
   <si>
-    <t>0:56.71</t>
-  </si>
-  <si>
     <t>0:56.37</t>
   </si>
   <si>
@@ -761,40 +812,46 @@
     <t>0:56.28</t>
   </si>
   <si>
-    <t>蔡明紹(2)1.6</t>
-  </si>
-  <si>
-    <t>潘頓(1)2.0</t>
-  </si>
-  <si>
-    <t>班德禮(4)18.0</t>
-  </si>
-  <si>
-    <t>周俊樂(3)20.0</t>
-  </si>
-  <si>
-    <t>艾道拿(1)6.7</t>
-  </si>
-  <si>
-    <t>布文(4)5.2</t>
-  </si>
-  <si>
-    <t>蔡明紹(1)4.0</t>
-  </si>
-  <si>
-    <t>潘頓(1)2.6</t>
-  </si>
-  <si>
-    <t>布文(9)16.0</t>
-  </si>
-  <si>
-    <t>周俊樂(2)4.8</t>
-  </si>
-  <si>
-    <t>艾道拿(2)8.3</t>
-  </si>
-  <si>
-    <t>何澤堯(5)9.5</t>
+    <t>[01/01] 1000 蔡明紹 (2) 1.6</t>
+  </si>
+  <si>
+    <t>[26/05] 1000 潘頓 (1) 2.0</t>
+  </si>
+  <si>
+    <t>##[26/01] 1200 希威森 (3) 6.1</t>
+  </si>
+  <si>
+    <t>[01/01] 1000 班德禮 (4) 18.0</t>
+  </si>
+  <si>
+    <t>##[26/01] 1200 鍾易禮 (8) 16.0</t>
+  </si>
+  <si>
+    <t>[15/12] 1000 周俊樂 (3) 20.0</t>
+  </si>
+  <si>
+    <t>[15/12] 1000 艾道拿 (1) 6.7</t>
+  </si>
+  <si>
+    <t>[29/12] 1000 布文 (4) 5.2</t>
+  </si>
+  <si>
+    <t>[09/11] 1000 蔡明紹 (1) 4.0</t>
+  </si>
+  <si>
+    <t>[05/05] 1000 潘頓 (1) 2.6</t>
+  </si>
+  <si>
+    <t>[09/11] 1000 布文 (9) 16.0</t>
+  </si>
+  <si>
+    <t>[10/03] 1000 周俊樂 (2) 4.8</t>
+  </si>
+  <si>
+    <t>[01/12] 1000 艾道拿 (2) 8.3</t>
+  </si>
+  <si>
+    <t>[15/12] 1000 何澤堯 (5) 9.5</t>
   </si>
   <si>
     <t>0:56.46</t>
@@ -1171,13 +1228,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CO9"/>
+  <dimension ref="A1:CU9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:93">
+    <row r="1" spans="1:99">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1457,25 +1514,43 @@
       <c r="CO1" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="2" spans="1:93">
+    <row r="2" spans="1:99">
       <c r="A2" s="2">
         <v>45711</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G2">
         <v>1000</v>
@@ -1484,231 +1559,249 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L2">
         <v>135</v>
       </c>
       <c r="M2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O2">
         <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="R2">
         <v>100</v>
       </c>
       <c r="S2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="U2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="W2">
         <v>4</v>
       </c>
       <c r="Y2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Z2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AA2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AB2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AC2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AD2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AE2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AF2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AG2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AH2">
         <v>2024310</v>
       </c>
       <c r="AI2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AJ2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AK2">
+        <v>1000</v>
+      </c>
+      <c r="AL2">
         <v>2</v>
       </c>
-      <c r="AL2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AM2">
+      <c r="AM2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN2">
         <v>1.6</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>125</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>10</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>5</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>-3</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>13.15</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>33.8</v>
       </c>
-      <c r="AT2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AY2">
+      <c r="AU2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AZ2">
         <v>13.19</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>20.61</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>22.37</v>
       </c>
-      <c r="BE2">
+      <c r="BF2">
         <v>42.98</v>
       </c>
-      <c r="BF2">
+      <c r="BG2">
         <v>0.207</v>
       </c>
-      <c r="BG2">
+      <c r="BH2">
         <v>43.187</v>
       </c>
-      <c r="BH2" t="s">
-        <v>221</v>
-      </c>
-      <c r="BI2">
+      <c r="BI2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ2">
         <v>2024171</v>
       </c>
-      <c r="BJ2">
+      <c r="BK2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM2">
+        <v>1000</v>
+      </c>
+      <c r="BN2">
         <v>1</v>
       </c>
-      <c r="BK2" t="s">
-        <v>205</v>
-      </c>
-      <c r="BL2">
+      <c r="BO2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BP2">
         <v>4</v>
       </c>
-      <c r="BM2">
+      <c r="BQ2">
         <v>127</v>
       </c>
-      <c r="BN2">
+      <c r="BR2">
         <v>8</v>
       </c>
-      <c r="BO2">
+      <c r="BS2">
         <v>5</v>
       </c>
-      <c r="BP2">
+      <c r="BT2">
         <v>-3</v>
       </c>
-      <c r="BQ2">
+      <c r="BU2">
         <v>13.25</v>
       </c>
-      <c r="BR2">
+      <c r="BV2">
         <v>34.17</v>
       </c>
-      <c r="BS2" t="s">
-        <v>228</v>
-      </c>
       <c r="BW2" t="s">
-        <v>232</v>
-      </c>
-      <c r="BX2">
+        <v>246</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>250</v>
+      </c>
+      <c r="CB2">
         <v>13.33</v>
       </c>
-      <c r="BY2">
+      <c r="CC2">
         <v>20.84</v>
       </c>
-      <c r="BZ2">
+      <c r="CD2">
         <v>22.19</v>
       </c>
-      <c r="CD2">
+      <c r="CH2">
         <v>43.03</v>
       </c>
-      <c r="CE2">
+      <c r="CI2">
         <v>0.177</v>
       </c>
-      <c r="CF2">
+      <c r="CJ2">
         <v>43.207</v>
       </c>
-      <c r="CG2" t="s">
-        <v>238</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>105</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>221</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>243</v>
-      </c>
       <c r="CK2" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="CL2" t="s">
-        <v>249</v>
+        <v>111</v>
       </c>
       <c r="CM2" t="s">
+        <v>233</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>260</v>
+      </c>
+      <c r="CO2" t="s">
         <v>255</v>
       </c>
-      <c r="CN2">
+      <c r="CP2" t="s">
+        <v>268</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>274</v>
+      </c>
+      <c r="CR2">
         <v>56.38</v>
       </c>
-      <c r="CO2">
+      <c r="CS2">
+        <v>56.54</v>
+      </c>
+      <c r="CT2">
         <v>56.46</v>
       </c>
+      <c r="CU2">
+        <v>56.38</v>
+      </c>
     </row>
-    <row r="3" spans="1:93">
+    <row r="3" spans="1:99">
       <c r="A3" s="2">
         <v>45711</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>1000</v>
@@ -1717,231 +1810,249 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L3">
         <v>126</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="R3">
         <v>91</v>
       </c>
       <c r="S3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="U3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="W3">
         <v>4</v>
       </c>
       <c r="Y3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Z3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AA3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AB3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AC3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AD3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AE3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AF3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AG3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AH3">
         <v>2023697</v>
       </c>
       <c r="AI3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AJ3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="AK3">
+        <v>1000</v>
+      </c>
+      <c r="AL3">
         <v>1</v>
       </c>
-      <c r="AL3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM3">
+      <c r="AM3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN3">
         <v>2</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>135</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>-9</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>3</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>-2</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>12.8</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>33.35</v>
       </c>
-      <c r="AT3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>216</v>
-      </c>
-      <c r="AY3">
+      <c r="AU3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AZ3">
         <v>13.04</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>20.35</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>22.73</v>
       </c>
-      <c r="BE3">
+      <c r="BF3">
         <v>43.08</v>
       </c>
-      <c r="BF3">
+      <c r="BG3">
         <v>-0.097</v>
       </c>
-      <c r="BG3">
+      <c r="BH3">
         <v>42.983</v>
       </c>
-      <c r="BH3" t="s">
-        <v>222</v>
-      </c>
-      <c r="BI3">
+      <c r="BI3" t="s">
+        <v>234</v>
+      </c>
+      <c r="BJ3">
         <v>2023640</v>
       </c>
-      <c r="BJ3">
+      <c r="BK3" t="s">
+        <v>242</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>209</v>
+      </c>
+      <c r="BM3">
+        <v>1000</v>
+      </c>
+      <c r="BN3">
         <v>1</v>
       </c>
-      <c r="BK3" t="s">
-        <v>206</v>
-      </c>
-      <c r="BL3">
+      <c r="BO3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP3">
         <v>2.6</v>
       </c>
-      <c r="BM3">
+      <c r="BQ3">
         <v>126</v>
       </c>
-      <c r="BN3">
+      <c r="BR3">
         <v>0</v>
       </c>
-      <c r="BO3">
+      <c r="BS3">
         <v>7</v>
       </c>
-      <c r="BP3">
+      <c r="BT3">
         <v>-6</v>
       </c>
-      <c r="BQ3">
+      <c r="BU3">
         <v>12.88</v>
       </c>
-      <c r="BR3">
+      <c r="BV3">
         <v>33.59</v>
       </c>
-      <c r="BS3" t="s">
-        <v>229</v>
-      </c>
       <c r="BW3" t="s">
-        <v>233</v>
-      </c>
-      <c r="BX3">
+        <v>247</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>251</v>
+      </c>
+      <c r="CB3">
         <v>13.28</v>
       </c>
-      <c r="BY3">
+      <c r="CC3">
         <v>20.55</v>
       </c>
-      <c r="BZ3">
+      <c r="CD3">
         <v>23.02</v>
       </c>
-      <c r="CD3">
+      <c r="CH3">
         <v>43.57</v>
       </c>
-      <c r="CE3">
+      <c r="CI3">
         <v>0.114</v>
       </c>
-      <c r="CF3">
+      <c r="CJ3">
         <v>43.684</v>
       </c>
-      <c r="CG3" t="s">
-        <v>239</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>106</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>222</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>244</v>
-      </c>
       <c r="CK3" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="CL3" t="s">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="CM3" t="s">
+        <v>234</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>261</v>
+      </c>
+      <c r="CO3" t="s">
         <v>256</v>
       </c>
-      <c r="CN3">
+      <c r="CP3" t="s">
+        <v>269</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>275</v>
+      </c>
+      <c r="CR3">
         <v>56.02</v>
       </c>
-      <c r="CO3">
+      <c r="CS3">
+        <v>56.96</v>
+      </c>
+      <c r="CT3">
         <v>56.49</v>
       </c>
+      <c r="CU3">
+        <v>56.02</v>
+      </c>
     </row>
-    <row r="4" spans="1:93">
+    <row r="4" spans="1:99">
       <c r="A4" s="2">
         <v>45711</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G4">
         <v>1000</v>
@@ -1950,84 +2061,168 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L4">
         <v>126</v>
       </c>
       <c r="M4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="O4">
         <v>8</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="R4">
         <v>91</v>
       </c>
       <c r="S4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="U4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="W4">
         <v>4</v>
       </c>
       <c r="Y4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Z4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AA4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AB4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AD4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AE4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AF4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AG4" t="s">
-        <v>196</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>107</v>
+        <v>202</v>
+      </c>
+      <c r="AH4">
+        <v>2024383</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK4">
+        <v>1200</v>
+      </c>
+      <c r="AL4">
+        <v>3</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AN4">
+        <v>6.1</v>
+      </c>
+      <c r="AO4">
+        <v>127</v>
+      </c>
+      <c r="AP4">
+        <v>-1</v>
+      </c>
+      <c r="AQ4">
+        <v>5</v>
+      </c>
+      <c r="AR4">
+        <v>3</v>
+      </c>
+      <c r="AS4">
+        <v>23.2</v>
+      </c>
+      <c r="AT4">
+        <v>45.45</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>227</v>
+      </c>
+      <c r="AZ4">
+        <v>23.8</v>
+      </c>
+      <c r="BA4">
+        <v>21.97</v>
+      </c>
+      <c r="BB4">
+        <v>23.65</v>
+      </c>
+      <c r="BF4">
+        <v>45.62</v>
+      </c>
+      <c r="BG4">
+        <v>-0.07199999999999999</v>
+      </c>
+      <c r="BH4">
+        <v>45.54799999999999</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>235</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>113</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>235</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>262</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>235</v>
+      </c>
+      <c r="CR4">
+        <v>56.71</v>
+      </c>
+      <c r="CT4">
+        <v>56.71</v>
+      </c>
+      <c r="CU4">
+        <v>56.71</v>
       </c>
     </row>
-    <row r="5" spans="1:93">
+    <row r="5" spans="1:99">
       <c r="A5" s="2">
         <v>45711</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G5">
         <v>1000</v>
@@ -2036,231 +2231,249 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L5">
         <v>125</v>
       </c>
       <c r="M5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O5">
         <v>7</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="R5">
         <v>90</v>
       </c>
       <c r="S5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="U5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="W5">
         <v>6</v>
       </c>
       <c r="Y5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Z5" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AA5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AB5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AC5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AD5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AE5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AF5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AG5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AH5">
         <v>2024310</v>
       </c>
       <c r="AI5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AJ5" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AK5">
+        <v>1000</v>
+      </c>
+      <c r="AL5">
         <v>4</v>
       </c>
-      <c r="AL5" t="s">
-        <v>207</v>
-      </c>
-      <c r="AM5">
+      <c r="AM5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN5">
         <v>18</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>122</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>3</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>6</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>1</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>13.15</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>33.8</v>
       </c>
-      <c r="AT5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>217</v>
-      </c>
-      <c r="AY5">
+      <c r="AU5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ5">
         <v>13.15</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>20.65</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <v>22.86</v>
       </c>
-      <c r="BE5">
+      <c r="BF5">
         <v>43.51</v>
       </c>
-      <c r="BF5">
+      <c r="BG5">
         <v>0.026</v>
       </c>
-      <c r="BG5">
+      <c r="BH5">
         <v>43.536</v>
       </c>
-      <c r="BH5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BI5">
+      <c r="BI5" t="s">
+        <v>236</v>
+      </c>
+      <c r="BJ5">
         <v>2024171</v>
       </c>
-      <c r="BJ5">
+      <c r="BK5" t="s">
+        <v>241</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM5">
+        <v>1000</v>
+      </c>
+      <c r="BN5">
         <v>9</v>
       </c>
-      <c r="BK5" t="s">
-        <v>210</v>
-      </c>
-      <c r="BL5">
+      <c r="BO5" t="s">
+        <v>219</v>
+      </c>
+      <c r="BP5">
         <v>16</v>
       </c>
-      <c r="BM5">
+      <c r="BQ5">
         <v>135</v>
       </c>
-      <c r="BN5">
+      <c r="BR5">
         <v>-10</v>
       </c>
-      <c r="BO5">
+      <c r="BS5">
         <v>1</v>
       </c>
-      <c r="BP5">
+      <c r="BT5">
         <v>6</v>
       </c>
-      <c r="BQ5">
+      <c r="BU5">
         <v>13.25</v>
       </c>
-      <c r="BR5">
+      <c r="BV5">
         <v>34.17</v>
       </c>
-      <c r="BS5" t="s">
-        <v>228</v>
-      </c>
       <c r="BW5" t="s">
-        <v>234</v>
-      </c>
-      <c r="BX5">
+        <v>246</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>252</v>
+      </c>
+      <c r="CB5">
         <v>13.45</v>
       </c>
-      <c r="BY5">
+      <c r="CC5">
         <v>21.04</v>
       </c>
-      <c r="BZ5">
+      <c r="CD5">
         <v>23.63</v>
       </c>
-      <c r="CD5">
+      <c r="CH5">
         <v>44.67</v>
       </c>
-      <c r="CE5">
+      <c r="CI5">
         <v>-0.264</v>
       </c>
-      <c r="CF5">
+      <c r="CJ5">
         <v>44.406</v>
       </c>
-      <c r="CG5" t="s">
-        <v>240</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>223</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>245</v>
-      </c>
       <c r="CK5" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="CL5" t="s">
-        <v>251</v>
+        <v>114</v>
       </c>
       <c r="CM5" t="s">
+        <v>236</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>263</v>
+      </c>
+      <c r="CO5" t="s">
         <v>257</v>
       </c>
-      <c r="CN5">
+      <c r="CP5" t="s">
+        <v>270</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>276</v>
+      </c>
+      <c r="CR5">
         <v>56.69</v>
       </c>
-      <c r="CO5">
+      <c r="CS5">
+        <v>57.86</v>
+      </c>
+      <c r="CT5">
         <v>57.27</v>
       </c>
+      <c r="CU5">
+        <v>56.69</v>
+      </c>
     </row>
-    <row r="6" spans="1:93">
+    <row r="6" spans="1:99">
       <c r="A6" s="2">
         <v>45711</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G6">
         <v>1000</v>
@@ -2269,90 +2482,174 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L6">
         <v>123</v>
       </c>
       <c r="M6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="O6">
         <v>6</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="R6">
         <v>88</v>
       </c>
       <c r="S6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="U6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="W6">
         <v>5</v>
       </c>
       <c r="Y6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Z6" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AA6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AB6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AC6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AD6" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AE6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AF6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AG6" t="s">
-        <v>196</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>109</v>
+        <v>202</v>
+      </c>
+      <c r="AH6">
+        <v>2024383</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK6">
+        <v>1200</v>
+      </c>
+      <c r="AL6">
+        <v>8</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN6">
+        <v>16</v>
+      </c>
+      <c r="AO6">
+        <v>128</v>
+      </c>
+      <c r="AP6">
+        <v>-5</v>
+      </c>
+      <c r="AQ6">
+        <v>3</v>
+      </c>
+      <c r="AR6">
+        <v>3</v>
+      </c>
+      <c r="AS6">
+        <v>23.2</v>
+      </c>
+      <c r="AT6">
+        <v>45.45</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AZ6">
+        <v>23.48</v>
+      </c>
+      <c r="BA6">
+        <v>22.13</v>
+      </c>
+      <c r="BB6">
+        <v>24.25</v>
+      </c>
+      <c r="BF6">
+        <v>46.38</v>
+      </c>
+      <c r="BG6">
+        <v>-0.132</v>
+      </c>
+      <c r="BH6">
+        <v>46.248</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>237</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>115</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>237</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>264</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>237</v>
+      </c>
+      <c r="CR6">
+        <v>57.02</v>
+      </c>
+      <c r="CT6">
+        <v>57.02</v>
+      </c>
+      <c r="CU6">
+        <v>57.02</v>
       </c>
     </row>
-    <row r="7" spans="1:93">
+    <row r="7" spans="1:99">
       <c r="A7" s="2">
         <v>45711</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G7">
         <v>1000</v>
@@ -2361,231 +2658,249 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L7">
         <v>118</v>
       </c>
       <c r="M7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O7">
         <v>4</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="R7">
         <v>83</v>
       </c>
       <c r="S7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="U7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="W7">
         <v>4</v>
       </c>
       <c r="Y7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Z7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AA7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AB7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AC7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AD7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AE7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AF7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="AG7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AH7">
         <v>2024265</v>
       </c>
       <c r="AI7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AJ7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AK7">
+        <v>1000</v>
+      </c>
+      <c r="AL7">
         <v>3</v>
       </c>
-      <c r="AL7" t="s">
-        <v>208</v>
-      </c>
-      <c r="AM7">
+      <c r="AM7" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN7">
         <v>20</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>129</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>-11</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>7</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>-3</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>13.15</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>33.84</v>
       </c>
-      <c r="AT7" t="s">
-        <v>213</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>218</v>
-      </c>
-      <c r="AY7">
+      <c r="AU7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AZ7">
         <v>13.35</v>
       </c>
-      <c r="AZ7">
+      <c r="BA7">
         <v>20.73</v>
       </c>
-      <c r="BA7">
+      <c r="BB7">
         <v>22.01</v>
       </c>
-      <c r="BE7">
+      <c r="BF7">
         <v>42.74</v>
       </c>
-      <c r="BF7">
+      <c r="BG7">
         <v>-0.108</v>
       </c>
-      <c r="BG7">
+      <c r="BH7">
         <v>42.63200000000001</v>
       </c>
-      <c r="BH7" t="s">
-        <v>224</v>
-      </c>
-      <c r="BI7">
+      <c r="BI7" t="s">
+        <v>238</v>
+      </c>
+      <c r="BJ7">
         <v>2023491</v>
       </c>
-      <c r="BJ7">
+      <c r="BK7" t="s">
+        <v>243</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM7">
+        <v>1000</v>
+      </c>
+      <c r="BN7">
         <v>2</v>
       </c>
-      <c r="BK7" t="s">
-        <v>208</v>
-      </c>
-      <c r="BL7">
+      <c r="BO7" t="s">
+        <v>217</v>
+      </c>
+      <c r="BP7">
         <v>4.8</v>
       </c>
-      <c r="BM7">
+      <c r="BQ7">
         <v>121</v>
       </c>
-      <c r="BN7">
+      <c r="BR7">
         <v>-3</v>
       </c>
-      <c r="BO7">
+      <c r="BS7">
         <v>11</v>
       </c>
-      <c r="BP7">
+      <c r="BT7">
         <v>-7</v>
       </c>
-      <c r="BQ7">
+      <c r="BU7">
         <v>12.87</v>
       </c>
-      <c r="BR7">
+      <c r="BV7">
         <v>33.5</v>
       </c>
-      <c r="BS7" t="s">
-        <v>230</v>
-      </c>
       <c r="BW7" t="s">
-        <v>235</v>
-      </c>
-      <c r="BX7">
+        <v>248</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>253</v>
+      </c>
+      <c r="CB7">
         <v>13.19</v>
       </c>
-      <c r="BY7">
+      <c r="CC7">
         <v>20.63</v>
       </c>
-      <c r="BZ7">
+      <c r="CD7">
         <v>22.94</v>
       </c>
-      <c r="CD7">
+      <c r="CH7">
         <v>43.57</v>
       </c>
-      <c r="CE7">
+      <c r="CI7">
         <v>0.08800000000000001</v>
       </c>
-      <c r="CF7">
+      <c r="CJ7">
         <v>43.658</v>
       </c>
-      <c r="CG7" t="s">
-        <v>233</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>110</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>224</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>246</v>
-      </c>
       <c r="CK7" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="CL7" t="s">
-        <v>252</v>
+        <v>116</v>
       </c>
       <c r="CM7" t="s">
-        <v>258</v>
-      </c>
-      <c r="CN7">
+        <v>238</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>265</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>251</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>271</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>277</v>
+      </c>
+      <c r="CR7">
         <v>55.98</v>
       </c>
-      <c r="CO7">
+      <c r="CS7">
+        <v>56.85</v>
+      </c>
+      <c r="CT7">
         <v>56.41</v>
       </c>
+      <c r="CU7">
+        <v>55.98</v>
+      </c>
     </row>
-    <row r="8" spans="1:93">
+    <row r="8" spans="1:99">
       <c r="A8" s="2">
         <v>45711</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G8">
         <v>1000</v>
@@ -2594,234 +2909,252 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L8">
         <v>117</v>
       </c>
       <c r="M8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O8">
         <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="R8">
         <v>82</v>
       </c>
       <c r="S8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="U8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V8" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="W8">
         <v>5</v>
       </c>
       <c r="Y8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Z8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AA8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AB8" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AC8" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AD8" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AE8" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AF8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AG8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AH8">
         <v>2024265</v>
       </c>
       <c r="AI8" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AJ8" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AK8">
+        <v>1000</v>
+      </c>
+      <c r="AL8">
         <v>1</v>
       </c>
-      <c r="AL8" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM8">
+      <c r="AM8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN8">
         <v>6.7</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>121</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>-4</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>6</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>-3</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>13.15</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>33.84</v>
       </c>
-      <c r="AT8" t="s">
-        <v>213</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>219</v>
-      </c>
-      <c r="AY8">
+      <c r="AU8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ8">
         <v>13.15</v>
       </c>
-      <c r="AZ8">
+      <c r="BA8">
         <v>20.69</v>
       </c>
-      <c r="BA8">
+      <c r="BB8">
         <v>22.06</v>
       </c>
-      <c r="BE8">
+      <c r="BF8">
         <v>42.75</v>
       </c>
-      <c r="BF8">
+      <c r="BG8">
         <v>-0.003000000000000003</v>
       </c>
-      <c r="BG8">
+      <c r="BH8">
         <v>42.747</v>
       </c>
-      <c r="BH8" t="s">
-        <v>225</v>
-      </c>
-      <c r="BI8">
+      <c r="BI8" t="s">
+        <v>239</v>
+      </c>
+      <c r="BJ8">
         <v>2024225</v>
       </c>
-      <c r="BJ8">
+      <c r="BK8" t="s">
+        <v>244</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM8">
+        <v>1000</v>
+      </c>
+      <c r="BN8">
         <v>2</v>
       </c>
-      <c r="BK8" t="s">
-        <v>209</v>
-      </c>
-      <c r="BL8">
+      <c r="BO8" t="s">
+        <v>218</v>
+      </c>
+      <c r="BP8">
         <v>8.300000000000001</v>
       </c>
-      <c r="BM8">
+      <c r="BQ8">
         <v>127</v>
       </c>
-      <c r="BN8">
+      <c r="BR8">
         <v>-10</v>
       </c>
-      <c r="BO8">
+      <c r="BS8">
         <v>4</v>
       </c>
-      <c r="BP8">
+      <c r="BT8">
         <v>-1</v>
       </c>
-      <c r="BQ8">
+      <c r="BU8">
         <v>13.16</v>
       </c>
-      <c r="BR8">
+      <c r="BV8">
         <v>33.79</v>
       </c>
-      <c r="BS8" t="s">
-        <v>231</v>
-      </c>
       <c r="BW8" t="s">
-        <v>236</v>
-      </c>
-      <c r="BX8">
+        <v>249</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>235</v>
+      </c>
+      <c r="CB8">
         <v>13.24</v>
       </c>
-      <c r="BY8">
+      <c r="CC8">
         <v>20.55</v>
       </c>
-      <c r="BZ8">
+      <c r="CD8">
         <v>22.92</v>
       </c>
-      <c r="CD8">
+      <c r="CH8">
         <v>43.47</v>
       </c>
-      <c r="CE8">
+      <c r="CI8">
         <v>-0.131</v>
       </c>
-      <c r="CF8">
+      <c r="CJ8">
         <v>43.339</v>
       </c>
-      <c r="CG8" t="s">
-        <v>241</v>
-      </c>
-      <c r="CH8" t="s">
-        <v>111</v>
-      </c>
-      <c r="CI8" t="s">
-        <v>225</v>
-      </c>
-      <c r="CJ8" t="s">
-        <v>247</v>
-      </c>
       <c r="CK8" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="CL8" t="s">
-        <v>253</v>
+        <v>117</v>
       </c>
       <c r="CM8" t="s">
-        <v>259</v>
-      </c>
-      <c r="CN8">
+        <v>239</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>266</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>258</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>272</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>278</v>
+      </c>
+      <c r="CR8">
         <v>55.9</v>
       </c>
-      <c r="CO8">
+      <c r="CS8">
+        <v>56.58</v>
+      </c>
+      <c r="CT8">
         <v>56.24</v>
       </c>
+      <c r="CU8">
+        <v>55.9</v>
+      </c>
     </row>
-    <row r="9" spans="1:93">
+    <row r="9" spans="1:99">
       <c r="A9" s="2">
         <v>45711</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G9">
         <v>1000</v>
@@ -2830,211 +3163,229 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L9">
         <v>115</v>
       </c>
       <c r="M9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="O9">
         <v>5</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="R9">
         <v>76</v>
       </c>
       <c r="S9" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="U9" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V9" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="W9">
         <v>5</v>
       </c>
       <c r="Y9" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Z9" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AA9" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AB9" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AC9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AD9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AE9" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AF9" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AG9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AH9">
         <v>2024304</v>
       </c>
       <c r="AI9" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="AJ9" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="AK9">
+        <v>1000</v>
+      </c>
+      <c r="AL9">
         <v>4</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN9">
+        <v>5.2</v>
+      </c>
+      <c r="AO9">
+        <v>135</v>
+      </c>
+      <c r="AP9">
+        <v>-20</v>
+      </c>
+      <c r="AQ9">
+        <v>10</v>
+      </c>
+      <c r="AR9">
+        <v>-5</v>
+      </c>
+      <c r="AS9">
+        <v>12.99</v>
+      </c>
+      <c r="AT9">
+        <v>33.63</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>232</v>
+      </c>
+      <c r="AZ9">
+        <v>13.39</v>
+      </c>
+      <c r="BA9">
+        <v>20.64</v>
+      </c>
+      <c r="BB9">
+        <v>23.05</v>
+      </c>
+      <c r="BF9">
+        <v>43.69</v>
+      </c>
+      <c r="BG9">
+        <v>-0.205</v>
+      </c>
+      <c r="BH9">
+        <v>43.485</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>240</v>
+      </c>
+      <c r="BJ9">
+        <v>2024265</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BL9" t="s">
         <v>210</v>
       </c>
-      <c r="AM9">
-        <v>5.2</v>
-      </c>
-      <c r="AN9">
-        <v>135</v>
-      </c>
-      <c r="AO9">
-        <v>-20</v>
-      </c>
-      <c r="AP9">
-        <v>10</v>
-      </c>
-      <c r="AQ9">
-        <v>-5</v>
-      </c>
-      <c r="AR9">
-        <v>12.99</v>
-      </c>
-      <c r="AS9">
-        <v>33.63</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>214</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>220</v>
-      </c>
-      <c r="AY9">
-        <v>13.39</v>
-      </c>
-      <c r="AZ9">
-        <v>20.64</v>
-      </c>
-      <c r="BA9">
-        <v>23.05</v>
-      </c>
-      <c r="BE9">
-        <v>43.69</v>
-      </c>
-      <c r="BF9">
-        <v>-0.205</v>
-      </c>
-      <c r="BG9">
-        <v>43.485</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>226</v>
-      </c>
-      <c r="BI9">
-        <v>2024265</v>
-      </c>
-      <c r="BJ9">
+      <c r="BM9">
+        <v>1000</v>
+      </c>
+      <c r="BN9">
         <v>5</v>
       </c>
-      <c r="BK9" t="s">
-        <v>227</v>
-      </c>
-      <c r="BL9">
+      <c r="BO9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BP9">
         <v>9.5</v>
       </c>
-      <c r="BM9">
+      <c r="BQ9">
         <v>125</v>
       </c>
-      <c r="BN9">
+      <c r="BR9">
         <v>-10</v>
       </c>
-      <c r="BO9">
+      <c r="BS9">
         <v>8</v>
       </c>
-      <c r="BP9">
+      <c r="BT9">
         <v>-3</v>
       </c>
-      <c r="BQ9">
+      <c r="BU9">
         <v>13.15</v>
       </c>
-      <c r="BR9">
+      <c r="BV9">
         <v>33.84</v>
       </c>
-      <c r="BS9" t="s">
-        <v>213</v>
-      </c>
       <c r="BW9" t="s">
-        <v>237</v>
-      </c>
-      <c r="BX9">
+        <v>223</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>254</v>
+      </c>
+      <c r="CB9">
         <v>13.51</v>
       </c>
-      <c r="BY9">
+      <c r="CC9">
         <v>20.73</v>
       </c>
-      <c r="BZ9">
+      <c r="CD9">
         <v>22.13</v>
       </c>
-      <c r="CD9">
+      <c r="CH9">
         <v>42.86</v>
       </c>
-      <c r="CE9">
+      <c r="CI9">
         <v>-0.093</v>
       </c>
-      <c r="CF9">
+      <c r="CJ9">
         <v>42.767</v>
       </c>
-      <c r="CG9" t="s">
-        <v>242</v>
-      </c>
-      <c r="CH9" t="s">
-        <v>112</v>
-      </c>
-      <c r="CI9" t="s">
-        <v>226</v>
-      </c>
-      <c r="CJ9" t="s">
-        <v>248</v>
-      </c>
       <c r="CK9" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="CL9" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="CM9" t="s">
-        <v>241</v>
-      </c>
-      <c r="CN9">
+        <v>240</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>259</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>273</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>258</v>
+      </c>
+      <c r="CR9">
         <v>56.88</v>
       </c>
-      <c r="CO9">
+      <c r="CS9">
+        <v>56.28</v>
+      </c>
+      <c r="CT9">
         <v>56.58</v>
+      </c>
+      <c r="CU9">
+        <v>56.28</v>
       </c>
     </row>
   </sheetData>
